--- a/municipal/ENG/Share of Agriculture Land Area/Share of Agriculture Land Area.xlsx
+++ b/municipal/ENG/Share of Agriculture Land Area/Share of Agriculture Land Area.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsertsvadze\Desktop\თიკოს ბავშვები\Share of Agriculture Land Area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოფელი ქარ. EN\სოფელი ქარ. EN\Share of Agriculture Land Area\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Land Area" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
-  <si>
-    <t>შენიშვნა:</t>
-  </si>
-  <si>
-    <t>"-" მოვლენა არ არსებობს.</t>
-  </si>
-  <si>
-    <t>0.0 მაჩვენებლის სიდიდე უმნიშვნელოა.</t>
-  </si>
-  <si>
-    <t>ზოგიერთ შემთხვევაში უმნიშვნელო განსხვავება ჯამურ შედეგსა და შესაკრებთა ჯამს შორის აიხსნება მონაცემთა დამრგვალებით.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">Note: </t>
   </si>
@@ -50,15 +38,9 @@
     <t>The discrepancy between the totals and the sum in some cases can be explained by using rounded data.</t>
   </si>
   <si>
-    <t>Share of Agriculture Land Area in Total Land Area of Municipality per sq. km</t>
-  </si>
-  <si>
     <t>(2014 Census Results)</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>C. Tbilisi</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>Sagarejo Municipality</t>
   </si>
   <si>
-    <t>Sighnagi Municipality</t>
-  </si>
-  <si>
     <t>Kvareli Municipality</t>
   </si>
   <si>
@@ -279,6 +258,15 @@
   </si>
   <si>
     <t>Khashuri Municipality</t>
+  </si>
+  <si>
+    <t>Share of Agriculture Land Area (%) in Total Land Area of Municipality per sq. km</t>
+  </si>
+  <si>
+    <t>Georgia - Total</t>
+  </si>
+  <si>
+    <t>Sighnaghi Municipality</t>
   </si>
 </sst>
 </file>
@@ -288,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,14 +325,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -387,20 +367,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -429,11 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,19 +412,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,20 +427,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,675 +726,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9">
+        <v>13.776353782090185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5.5866184317917007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6.8037931034482755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
+        <v>15.115431348724181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B8" s="12">
+        <v>4.3053097345132745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B9" s="12">
+        <v>9.6625896246309573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
-        <v>13.776353782090185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="B10" s="12">
+        <v>3.3503401360544216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12">
-        <v>5.5866184317917007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="B11" s="12">
+        <v>9.2312008978675646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12">
-        <v>6.8037931034482755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="B12" s="12">
+        <v>6.2098591549295774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15">
-        <v>15.115431348724181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="B13" s="9">
+        <v>13.23480228211686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15">
-        <v>4.3053097345132745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="B14" s="12">
+        <v>16.306509097730256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="15">
-        <v>9.6625896246309573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="B15" s="12">
+        <v>20.580740740740737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15">
-        <v>3.3503401360544216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="B16" s="12">
+        <v>5.2405768997697244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="15">
-        <v>9.2312008978675646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="B17" s="9">
+        <v>10.247868177779164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15">
-        <v>6.2098591549295774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B18" s="12">
+        <v>3.4268833087149182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
-        <v>13.23480228211686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="B19" s="12">
+        <v>5.5003679175864608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15">
-        <v>16.306509097730256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="B20" s="12">
+        <v>9.8815080789946137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15">
-        <v>20.580740740740737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="B21" s="12">
+        <v>16.584847769648338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15">
-        <v>5.2405768997697244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B22" s="12">
+        <v>23.652661064425772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
-        <v>10.247868177779164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="B23" s="12">
+        <v>23.78192804174677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15">
-        <v>3.4268833087149182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="B24" s="12">
+        <v>8.1535458685751472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15">
-        <v>5.5003679175864608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="B25" s="12">
+        <v>5.0751879699248121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15">
-        <v>9.8815080789946137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="B26" s="12">
+        <v>14.885016426224825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15">
-        <v>16.584847769648338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="B27" s="12">
+        <v>8.2888888888888896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
-        <v>23.652661064425772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="B28" s="12">
+        <v>3.6065215012583436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="15">
-        <v>23.78192804174677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="B29" s="12">
+        <v>10.492415402567094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="15">
-        <v>8.1535458685751472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="B30" s="9">
+        <v>27.736175824175824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="15">
-        <v>5.0751879699248121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="B31" s="12">
+        <v>10.560789998188078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15">
-        <v>14.885016426224825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="B32" s="12">
+        <v>28.109929078014183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="15">
-        <v>8.2888888888888896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="B33" s="12">
+        <v>34.752764612954188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="15">
-        <v>3.6065215012583436</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="B34" s="12">
+        <v>16.677935130196438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="15">
-        <v>10.492415402567094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="B35" s="12">
+        <v>24.876432262412941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="12">
-        <v>27.736175824175824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="B36" s="12">
+        <v>40.835425114243421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="12">
+        <v>46.060751398880896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="15">
-        <v>10.560789998188078</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="B38" s="12">
+        <v>18.943999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="15">
-        <v>28.109929078014183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="B39" s="9">
+        <v>3.7154834106314665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="15">
-        <v>34.752764612954188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="B40" s="12">
+        <v>2.4051651853094076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15">
-        <v>16.677935130196438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="B41" s="12">
+        <v>5.2852256427231605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="15">
-        <v>24.876432262412941</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="B42" s="12">
+        <v>10.419875776397516</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="15">
-        <v>40.835425114243421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="B43" s="12">
+        <v>0.44374595544051026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="15">
-        <v>46.060751398880896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="B44" s="9">
+        <v>1.2515217391304347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="15">
-        <v>18.943999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="B45" s="12">
+        <v>1.4553415061295971</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="12">
-        <v>3.7154834106314665</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="B46" s="12">
+        <v>0.34523809523809518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="15">
-        <v>2.4051651853094076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="B47" s="12">
+        <v>1.3044117647058822</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="15">
-        <v>5.2852256427231605</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="B48" s="12">
+        <v>2.4628647214854111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="15">
-        <v>10.419875776397516</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="B49" s="9">
+        <v>8.9261133874293677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="15">
-        <v>0.44374595544051026</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="B50" s="12">
+        <v>1.6109422492401217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="12">
-        <v>1.2515217391304347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="B51" s="12">
+        <v>23.423255813953492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="15">
-        <v>1.4553415061295971</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="B52" s="12">
+        <v>25.956604603430581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="15">
-        <v>0.34523809523809518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="B53" s="12">
+        <v>13.255734726322961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="15">
-        <v>1.3044117647058822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="B54" s="12">
+        <v>0.72064378387255712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="15">
-        <v>2.4628647214854111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="B55" s="12">
+        <v>13.746879201075474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="12">
-        <v>8.9261133874293677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="B56" s="12">
+        <v>8.6858249919276727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="15">
-        <v>1.6109422492401217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="B57" s="12">
+        <v>7.5815679604144108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="15">
-        <v>23.423255813953492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="B58" s="12">
+        <v>14.776627218934911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="15">
-        <v>25.956604603430581</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="B59" s="9">
+        <v>11.860130394849076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="15">
-        <v>13.255734726322961</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="B60" s="12">
+        <v>5.7508786412017061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="15">
-        <v>0.72064378387255712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+      <c r="B61" s="12">
+        <v>14.852121212121212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="15">
-        <v>13.746879201075474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+      <c r="B62" s="12">
+        <v>13.671255060728745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="15">
-        <v>8.6858249919276727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="B63" s="12">
+        <v>6.710877957042463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="15">
-        <v>7.5815679604144108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="B64" s="12">
+        <v>3.4179983179142135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="15">
-        <v>14.776627218934911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="B65" s="12">
+        <v>23.247415066469721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="12">
-        <v>11.860130394849076</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="B66" s="9">
+        <v>19.004381467325441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="15">
-        <v>5.7508786412017061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="B67" s="12">
+        <v>4.0594059405940595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="15">
-        <v>14.852121212121212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="B68" s="12">
+        <v>13.227611940298507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="15">
-        <v>13.671255060728745</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+      <c r="B69" s="12">
+        <v>20.973436726612768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="15">
-        <v>6.710877957042463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="B70" s="12">
+        <v>19.147480814147482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="15">
-        <v>3.4179983179142135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="B71" s="12">
+        <v>11.57088122605364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="15">
-        <v>23.247415066469721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="B72" s="12">
+        <v>32.125066809192944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="12">
-        <v>19.004381467325441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="B73" s="12">
+        <v>18.478012564249003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="15">
-        <v>4.0594059405940595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="B74" s="9">
+        <v>19.076510223726043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="15">
-        <v>13.227611940298507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="B75" s="12">
+        <v>21.13888478035793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="15">
-        <v>20.973436726612768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="B76" s="12">
+        <v>14.46215139442231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="15">
-        <v>19.147480814147482</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="B77" s="12">
+        <v>25.880471135669623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="15">
-        <v>11.57088122605364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="15">
-        <v>32.125066809192944</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="15">
-        <v>18.478012564249003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="12">
-        <v>19.076510223726043</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="15">
-        <v>21.13888478035793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="15">
-        <v>14.46215139442231</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="15">
-        <v>25.880471135669623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="19">
+      <c r="B78" s="16">
         <v>12.650375939849622</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>0</v>
+      <c r="A80" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>1</v>
+      <c r="A81" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A82" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
